--- a/Code/Results/Cases/Case_5_97/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_97/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.66533272228721</v>
+        <v>15.14538034605772</v>
       </c>
       <c r="C2">
-        <v>14.24832001223652</v>
+        <v>11.09381386923713</v>
       </c>
       <c r="D2">
-        <v>4.615446062773803</v>
+        <v>4.991507198785488</v>
       </c>
       <c r="E2">
-        <v>7.396457116620657</v>
+        <v>12.33569114822233</v>
       </c>
       <c r="F2">
-        <v>17.94075544863029</v>
+        <v>24.49992230631182</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>12.90529334724066</v>
+        <v>22.19670225903976</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.274427599804064</v>
+        <v>10.03587379587379</v>
       </c>
       <c r="M2">
-        <v>12.38597331537083</v>
+        <v>14.53851040075903</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.18548401280999</v>
+        <v>21.94641149117582</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.23224668600488</v>
+        <v>14.54781237916841</v>
       </c>
       <c r="C3">
-        <v>13.5961743336088</v>
+        <v>10.8148330778737</v>
       </c>
       <c r="D3">
-        <v>4.477763395327817</v>
+        <v>4.946680220603967</v>
       </c>
       <c r="E3">
-        <v>7.524347285356874</v>
+        <v>12.38353142493903</v>
       </c>
       <c r="F3">
-        <v>17.56054951122526</v>
+        <v>24.5541968581864</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>13.21805725136505</v>
+        <v>22.34220659126368</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.193167311040158</v>
+        <v>10.04495477195722</v>
       </c>
       <c r="M3">
-        <v>11.75054362563319</v>
+        <v>14.40417993689605</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.14405344520629</v>
+        <v>22.04265431265354</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.30023904600108</v>
+        <v>14.16874570717532</v>
       </c>
       <c r="C4">
-        <v>13.17960113571642</v>
+        <v>10.63888572589536</v>
       </c>
       <c r="D4">
-        <v>4.390925990374826</v>
+        <v>4.918746072883493</v>
       </c>
       <c r="E4">
-        <v>7.605369700671178</v>
+        <v>12.41445368153827</v>
       </c>
       <c r="F4">
-        <v>17.34654968617729</v>
+        <v>24.59586488378161</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>13.4237085283938</v>
+        <v>22.43698940105817</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.145809320683479</v>
+        <v>10.05196209405625</v>
       </c>
       <c r="M4">
-        <v>11.3455124405085</v>
+        <v>14.32267194227342</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.13719223141588</v>
+        <v>22.10802811107565</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.90727971518391</v>
+        <v>14.01142594475998</v>
       </c>
       <c r="C5">
-        <v>13.00592394627811</v>
+        <v>10.5660897946672</v>
       </c>
       <c r="D5">
-        <v>4.354993986826073</v>
+        <v>4.907265396023751</v>
       </c>
       <c r="E5">
-        <v>7.639026273307215</v>
+        <v>12.4274452087177</v>
       </c>
       <c r="F5">
-        <v>17.26422627695419</v>
+        <v>24.61493434888935</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>13.51076988391423</v>
+        <v>22.47698246070575</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.127154486802825</v>
+        <v>10.05517801652483</v>
       </c>
       <c r="M5">
-        <v>11.17688550028978</v>
+        <v>14.28972932047401</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.13886959505703</v>
+        <v>22.13624164720362</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.84123269019068</v>
+        <v>13.9851377957467</v>
       </c>
       <c r="C6">
-        <v>12.97685284442901</v>
+        <v>10.55393814562083</v>
       </c>
       <c r="D6">
-        <v>4.348995616780553</v>
+        <v>4.905353334729021</v>
       </c>
       <c r="E6">
-        <v>7.644653855364291</v>
+        <v>12.42962605882838</v>
       </c>
       <c r="F6">
-        <v>17.25085080493222</v>
+        <v>24.61822674386154</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>13.52541856129951</v>
+        <v>22.48370591301038</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.124095913350666</v>
+        <v>10.05573379460261</v>
       </c>
       <c r="M6">
-        <v>11.14867480897414</v>
+        <v>14.28427650101861</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.13941236549814</v>
+        <v>22.14102132014271</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.29499281506401</v>
+        <v>14.16663526937803</v>
       </c>
       <c r="C7">
-        <v>13.17727453169134</v>
+        <v>10.63790831086798</v>
       </c>
       <c r="D7">
-        <v>4.39044355954701</v>
+        <v>4.918591626597696</v>
       </c>
       <c r="E7">
-        <v>7.605821001881291</v>
+        <v>12.41462730732292</v>
       </c>
       <c r="F7">
-        <v>17.34541969834328</v>
+        <v>24.59611361342542</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>13.42486968733538</v>
+        <v>22.43752322159789</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.145555120564112</v>
+        <v>10.05200400545701</v>
       </c>
       <c r="M7">
-        <v>11.34325250327006</v>
+        <v>14.32222652604091</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.13719700765044</v>
+        <v>22.1084022470586</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.18197694275081</v>
+        <v>14.94198064445245</v>
       </c>
       <c r="C8">
-        <v>14.02689007281996</v>
+        <v>10.99862959271999</v>
       </c>
       <c r="D8">
-        <v>4.568469335151789</v>
+        <v>4.976139494801965</v>
       </c>
       <c r="E8">
-        <v>7.440042275940148</v>
+        <v>12.35186586394249</v>
       </c>
       <c r="F8">
-        <v>17.80562657998198</v>
+        <v>24.51689968799386</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>13.01020269881478</v>
+        <v>22.2457423653412</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.245886744921886</v>
+        <v>10.03870805523297</v>
       </c>
       <c r="M8">
-        <v>12.17005493726797</v>
+        <v>14.49200872306552</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.16722647650173</v>
+        <v>21.9782889380086</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.47207573572609</v>
+        <v>16.35795579589243</v>
       </c>
       <c r="C9">
-        <v>15.55981610832048</v>
+        <v>11.66610024122545</v>
       </c>
       <c r="D9">
-        <v>4.8980339783363</v>
+        <v>5.08548238843701</v>
       </c>
       <c r="E9">
-        <v>7.134229099894855</v>
+        <v>12.24102123337161</v>
       </c>
       <c r="F9">
-        <v>18.86169356109636</v>
+        <v>24.42809738405555</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>12.31364318920589</v>
+        <v>21.91285814054433</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.462442328154958</v>
+        <v>10.02397404126998</v>
       </c>
       <c r="M9">
-        <v>13.88489810919806</v>
+        <v>14.83140026703192</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.38187117034195</v>
+        <v>21.77323334470488</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.6436987593034</v>
+        <v>17.32542332544563</v>
       </c>
       <c r="C10">
-        <v>16.59969875764698</v>
+        <v>12.1285160297046</v>
       </c>
       <c r="D10">
-        <v>5.126742650606852</v>
+        <v>5.163344934550947</v>
       </c>
       <c r="E10">
-        <v>6.920514509835145</v>
+        <v>12.16696468596374</v>
       </c>
       <c r="F10">
-        <v>19.72919793666114</v>
+        <v>24.40380503533923</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>11.8867375419325</v>
+        <v>21.6946417625676</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.633157126779656</v>
+        <v>10.02003269903116</v>
       </c>
       <c r="M10">
-        <v>15.05759513278627</v>
+        <v>15.08298202964178</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.64507507619474</v>
+        <v>21.65347172931432</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.57934385330044</v>
+        <v>17.74819780227866</v>
       </c>
       <c r="C11">
-        <v>17.05329708317003</v>
+        <v>12.3321343486555</v>
       </c>
       <c r="D11">
-        <v>5.227616782604974</v>
+        <v>5.19816100724583</v>
       </c>
       <c r="E11">
-        <v>6.825489083413963</v>
+        <v>12.13486120757244</v>
       </c>
       <c r="F11">
-        <v>20.14309974131738</v>
+        <v>24.40170436372922</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>11.71458500766425</v>
+        <v>21.60109831678497</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.713236920437447</v>
+        <v>10.01972676734761</v>
       </c>
       <c r="M11">
-        <v>15.56438730221754</v>
+        <v>15.19755475806762</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.78970094552144</v>
+        <v>21.60576921201117</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.92622601292442</v>
+        <v>17.9056946738426</v>
       </c>
       <c r="C12">
-        <v>17.22222613784729</v>
+        <v>12.40822085606678</v>
       </c>
       <c r="D12">
-        <v>5.265342214254743</v>
+        <v>5.21125240203619</v>
       </c>
       <c r="E12">
-        <v>6.789805299484216</v>
+        <v>12.12293120608051</v>
       </c>
       <c r="F12">
-        <v>20.30254484350214</v>
+        <v>24.40219862726455</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>11.65291786846363</v>
+        <v>21.56649994658978</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.743900347108019</v>
+        <v>10.01982394753606</v>
       </c>
       <c r="M12">
-        <v>15.75249481492509</v>
+        <v>15.24092842233462</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.84818837810339</v>
+        <v>21.58868577796234</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.85184761978799</v>
+        <v>17.87189201278599</v>
       </c>
       <c r="C13">
-        <v>17.18597102344896</v>
+        <v>12.39188035618807</v>
       </c>
       <c r="D13">
-        <v>5.257238680705984</v>
+        <v>5.208437150275275</v>
       </c>
       <c r="E13">
-        <v>6.797477337776595</v>
+        <v>12.12549047124365</v>
       </c>
       <c r="F13">
-        <v>20.26808593202777</v>
+        <v>24.40203478763314</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>11.66603623223326</v>
+        <v>21.57391463169302</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.737281493804462</v>
+        <v>10.01979355709583</v>
       </c>
       <c r="M13">
-        <v>15.71215109866186</v>
+        <v>15.23158817200971</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.83542448965263</v>
+        <v>21.59232130345592</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.60803038911833</v>
+        <v>17.76120780072257</v>
       </c>
       <c r="C14">
-        <v>17.06725206379546</v>
+        <v>12.33841473345322</v>
       </c>
       <c r="D14">
-        <v>5.230730058020661</v>
+        <v>5.199239934953979</v>
       </c>
       <c r="E14">
-        <v>6.82254742936297</v>
+        <v>12.13387517803357</v>
       </c>
       <c r="F14">
-        <v>20.15616342668235</v>
+        <v>24.40171916775633</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>11.70943883531656</v>
+        <v>21.5982353555553</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.715752876240982</v>
+        <v>10.01973049785767</v>
       </c>
       <c r="M14">
-        <v>15.57993904930867</v>
+        <v>15.20112356201831</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.79443741593025</v>
+        <v>21.60434406471011</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.45772076807582</v>
+        <v>17.69306920776168</v>
       </c>
       <c r="C15">
-        <v>16.99416256633631</v>
+        <v>12.3055313274298</v>
       </c>
       <c r="D15">
-        <v>5.214430620472362</v>
+        <v>5.193594131999346</v>
       </c>
       <c r="E15">
-        <v>6.837942222621757</v>
+        <v>12.13904056929299</v>
       </c>
       <c r="F15">
-        <v>20.08795873094065</v>
+        <v>24.40169386266017</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>11.7364941930986</v>
+        <v>21.61323991821904</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.702609855824171</v>
+        <v>10.01971958989026</v>
       </c>
       <c r="M15">
-        <v>15.49846104255299</v>
+        <v>15.18246056745505</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.76982014066566</v>
+        <v>21.61183620975237</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.58150820791622</v>
+        <v>17.29743581572846</v>
       </c>
       <c r="C16">
-        <v>16.56965976307477</v>
+        <v>12.1150690998224</v>
       </c>
       <c r="D16">
-        <v>5.120084961007122</v>
+        <v>5.161056966076902</v>
       </c>
       <c r="E16">
-        <v>6.926767515437071</v>
+        <v>12.1690945313029</v>
       </c>
       <c r="F16">
-        <v>19.70253093814616</v>
+        <v>24.40412268095933</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>11.89846100762787</v>
+        <v>21.70087034708149</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.627971640539176</v>
+        <v>10.02008254825916</v>
       </c>
       <c r="M16">
-        <v>15.02394093460303</v>
+        <v>15.07549434672857</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.63613675120302</v>
+        <v>21.65672609030307</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.03066043170167</v>
+        <v>17.05020785426936</v>
       </c>
       <c r="C17">
-        <v>16.30422525756773</v>
+        <v>11.99646373021633</v>
       </c>
       <c r="D17">
-        <v>5.061382170409223</v>
+        <v>5.140937574740343</v>
       </c>
       <c r="E17">
-        <v>6.981810388886688</v>
+        <v>12.1879369162707</v>
       </c>
       <c r="F17">
-        <v>19.47097475157554</v>
+        <v>24.40790736741342</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>12.00370769673937</v>
+        <v>21.75609582839699</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.582796851989994</v>
+        <v>10.0206855263481</v>
       </c>
       <c r="M17">
-        <v>14.72602740546752</v>
+        <v>15.00988453547246</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.56060716026604</v>
+        <v>21.68600473278995</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.70890520573468</v>
+        <v>16.90638286997168</v>
       </c>
       <c r="C18">
-        <v>16.14972524559321</v>
+        <v>11.92761366493049</v>
       </c>
       <c r="D18">
-        <v>5.027320720760406</v>
+        <v>5.129308924387653</v>
       </c>
       <c r="E18">
-        <v>7.013677104244252</v>
+        <v>12.1989238288203</v>
       </c>
       <c r="F18">
-        <v>19.33960726718042</v>
+        <v>24.4109265579711</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>12.06629459471601</v>
+        <v>21.7883987716746</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.557041890065535</v>
+        <v>10.0211723603682</v>
       </c>
       <c r="M18">
-        <v>14.55216249245629</v>
+        <v>14.97216127987241</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.51950009578694</v>
+        <v>21.70348264058395</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.59911649655646</v>
+        <v>16.85741043344877</v>
       </c>
       <c r="C19">
-        <v>16.09710155216532</v>
+        <v>11.90419539091037</v>
       </c>
       <c r="D19">
-        <v>5.015737658513099</v>
+        <v>5.125362137911567</v>
       </c>
       <c r="E19">
-        <v>7.024502718589465</v>
+        <v>12.20266947862082</v>
       </c>
       <c r="F19">
-        <v>19.29544255179699</v>
+        <v>24.41209337161294</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>12.08782776232616</v>
+        <v>21.7994284774094</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.548361215033452</v>
+        <v>10.02136126506282</v>
       </c>
       <c r="M19">
-        <v>14.4928623409783</v>
+        <v>14.95939214259246</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.50597854128185</v>
+        <v>21.70950968738914</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.08980793685908</v>
+        <v>17.07669479760094</v>
       </c>
       <c r="C20">
-        <v>16.33267086684689</v>
+        <v>12.00915520226178</v>
       </c>
       <c r="D20">
-        <v>5.067662077029408</v>
+        <v>5.143085209449022</v>
       </c>
       <c r="E20">
-        <v>6.975929612515425</v>
+        <v>12.18591567095636</v>
       </c>
       <c r="F20">
-        <v>19.49543664957762</v>
+        <v>24.40741727811221</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>11.99228923125245</v>
+        <v>21.75016121801041</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.58758221688663</v>
+        <v>10.0206068526003</v>
       </c>
       <c r="M20">
-        <v>14.75800067422784</v>
+        <v>15.01686761057638</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.56840462334968</v>
+        <v>21.68282193821545</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.67984626856751</v>
+        <v>17.79378973575104</v>
       </c>
       <c r="C21">
-        <v>17.10220001101019</v>
+        <v>12.35414692718697</v>
       </c>
       <c r="D21">
-        <v>5.238529261496015</v>
+        <v>5.201943941711005</v>
       </c>
       <c r="E21">
-        <v>6.815175712018672</v>
+        <v>12.13140623712744</v>
       </c>
       <c r="F21">
-        <v>20.18896472205924</v>
+        <v>24.40177685447376</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>11.69659180109506</v>
+        <v>21.59106938119373</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.722067224052432</v>
+        <v>10.01974324509759</v>
       </c>
       <c r="M21">
-        <v>15.61887588186127</v>
+        <v>15.21007234049048</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.80637428057927</v>
+        <v>21.60078603295706</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.67578438053906</v>
+        <v>18.24726689532432</v>
       </c>
       <c r="C22">
-        <v>17.58857501361054</v>
+        <v>12.57365729951368</v>
       </c>
       <c r="D22">
-        <v>5.34743499575695</v>
+        <v>5.239868604478138</v>
       </c>
       <c r="E22">
-        <v>6.711856326733591</v>
+        <v>12.09710316684506</v>
       </c>
       <c r="F22">
-        <v>20.65799267510085</v>
+        <v>24.4056084467138</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>11.52406642552166</v>
+        <v>21.49190022235803</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.81193286494286</v>
+        <v>10.02042009936713</v>
       </c>
       <c r="M22">
-        <v>16.15935547407709</v>
+        <v>15.33625568715741</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.98364386382637</v>
+        <v>21.55288833282443</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.14816104196173</v>
+        <v>18.00665839134712</v>
       </c>
       <c r="C23">
-        <v>17.33051288144332</v>
+        <v>12.45706149036303</v>
       </c>
       <c r="D23">
-        <v>5.289568283188047</v>
+        <v>5.219679071771999</v>
       </c>
       <c r="E23">
-        <v>6.76684564676643</v>
+        <v>12.11529074733454</v>
       </c>
       <c r="F23">
-        <v>20.40624032198717</v>
+        <v>24.40287500108372</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>11.61412228951014</v>
+        <v>21.54438838692641</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.763792297135848</v>
+        <v>10.0199455586241</v>
       </c>
       <c r="M23">
-        <v>15.87290629458676</v>
+        <v>15.26892730825579</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.88699942122503</v>
+        <v>21.57792720897541</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.06308313409249</v>
+        <v>17.06472530731568</v>
       </c>
       <c r="C24">
-        <v>16.31981651596113</v>
+        <v>12.00341944669213</v>
       </c>
       <c r="D24">
-        <v>5.064823903005091</v>
+        <v>5.142114455665278</v>
       </c>
       <c r="E24">
-        <v>6.978587619403742</v>
+        <v>12.18682899564037</v>
       </c>
       <c r="F24">
-        <v>19.48437194730558</v>
+        <v>24.40763622079619</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>11.99744506950594</v>
+        <v>21.75284253262516</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.585418077970588</v>
+        <v>10.02064198431517</v>
       </c>
       <c r="M24">
-        <v>14.74355363047051</v>
+        <v>15.01371057024496</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.56487218763635</v>
+        <v>21.6842588702224</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.62549022355836</v>
+        <v>15.98710838541653</v>
       </c>
       <c r="C25">
-        <v>15.15998444813588</v>
+        <v>11.49019986289804</v>
       </c>
       <c r="D25">
-        <v>4.811137937723273</v>
+        <v>5.056312504876446</v>
       </c>
       <c r="E25">
-        <v>7.214974740614259</v>
+        <v>12.26970607836592</v>
       </c>
       <c r="F25">
-        <v>18.55971318161586</v>
+        <v>24.4449528860015</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>12.48828969819341</v>
+        <v>21.99828599568478</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.401783654809388</v>
+        <v>10.0267487205731</v>
       </c>
       <c r="M25">
-        <v>13.42921010286999</v>
+        <v>14.73907054651484</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.30599145885206</v>
+        <v>21.82330608012984</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_97/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_97/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.14538034605772</v>
+        <v>21.66533272228719</v>
       </c>
       <c r="C2">
-        <v>11.09381386923713</v>
+        <v>14.24832001223658</v>
       </c>
       <c r="D2">
-        <v>4.991507198785488</v>
+        <v>4.61544606277361</v>
       </c>
       <c r="E2">
-        <v>12.33569114822233</v>
+        <v>7.396457116620655</v>
       </c>
       <c r="F2">
-        <v>24.49992230631182</v>
+        <v>17.94075544863035</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>22.19670225903976</v>
+        <v>12.90529334724073</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.03587379587379</v>
+        <v>6.274427599804041</v>
       </c>
       <c r="M2">
-        <v>14.53851040075903</v>
+        <v>12.38597331537082</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.94641149117582</v>
+        <v>14.18548401281</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.54781237916841</v>
+        <v>20.2322466860048</v>
       </c>
       <c r="C3">
-        <v>10.8148330778737</v>
+        <v>13.59617433360908</v>
       </c>
       <c r="D3">
-        <v>4.946680220603967</v>
+        <v>4.477763395327913</v>
       </c>
       <c r="E3">
-        <v>12.38353142493903</v>
+        <v>7.524347285356874</v>
       </c>
       <c r="F3">
-        <v>24.5541968581864</v>
+        <v>17.56054951122533</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>22.34220659126368</v>
+        <v>13.21805725136518</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.04495477195722</v>
+        <v>6.193167311040111</v>
       </c>
       <c r="M3">
-        <v>14.40417993689605</v>
+        <v>11.75054362563321</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.04265431265354</v>
+        <v>14.1440534452064</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.16874570717532</v>
+        <v>19.30023904600102</v>
       </c>
       <c r="C4">
-        <v>10.63888572589536</v>
+        <v>13.1796011357164</v>
       </c>
       <c r="D4">
-        <v>4.918746072883493</v>
+        <v>4.390925990375043</v>
       </c>
       <c r="E4">
-        <v>12.41445368153827</v>
+        <v>7.605369700671109</v>
       </c>
       <c r="F4">
-        <v>24.59586488378161</v>
+        <v>17.34654968617741</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>22.43698940105817</v>
+        <v>13.42370852839404</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.05196209405625</v>
+        <v>6.145809320683429</v>
       </c>
       <c r="M4">
-        <v>14.32267194227342</v>
+        <v>11.34551244050849</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.10802811107565</v>
+        <v>14.13719223141605</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.01142594475998</v>
+        <v>18.90727971518395</v>
       </c>
       <c r="C5">
-        <v>10.5660897946672</v>
+        <v>13.00592394627816</v>
       </c>
       <c r="D5">
-        <v>4.907265396023751</v>
+        <v>4.354993986826114</v>
       </c>
       <c r="E5">
-        <v>12.4274452087177</v>
+        <v>7.639026273307145</v>
       </c>
       <c r="F5">
-        <v>24.61493434888935</v>
+        <v>17.2642262769541</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>22.47698246070575</v>
+        <v>13.51076988391415</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.05517801652483</v>
+        <v>6.127154486802748</v>
       </c>
       <c r="M5">
-        <v>14.28972932047401</v>
+        <v>11.17688550028974</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.13624164720362</v>
+        <v>14.13886959505698</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.9851377957467</v>
+        <v>18.84123269019065</v>
       </c>
       <c r="C6">
-        <v>10.55393814562083</v>
+        <v>12.97685284442903</v>
       </c>
       <c r="D6">
-        <v>4.905353334729021</v>
+        <v>4.348995616780664</v>
       </c>
       <c r="E6">
-        <v>12.42962605882838</v>
+        <v>7.64465385536436</v>
       </c>
       <c r="F6">
-        <v>24.61822674386154</v>
+        <v>17.25085080493231</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>22.48370591301038</v>
+        <v>13.52541856129965</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.05573379460261</v>
+        <v>6.124095913350698</v>
       </c>
       <c r="M6">
-        <v>14.28427650101861</v>
+        <v>11.14867480897416</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.14102132014271</v>
+        <v>14.13941236549831</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.16663526937803</v>
+        <v>19.29499281506397</v>
       </c>
       <c r="C7">
-        <v>10.63790831086798</v>
+        <v>13.17727453169151</v>
       </c>
       <c r="D7">
-        <v>4.918591626597696</v>
+        <v>4.390443559547013</v>
       </c>
       <c r="E7">
-        <v>12.41462730732292</v>
+        <v>7.605821001881427</v>
       </c>
       <c r="F7">
-        <v>24.59611361342542</v>
+        <v>17.34541969834338</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>22.43752322159789</v>
+        <v>13.42486968733555</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.05200400545701</v>
+        <v>6.145555120564159</v>
       </c>
       <c r="M7">
-        <v>14.32222652604091</v>
+        <v>11.3432525032701</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.1084022470586</v>
+        <v>14.13719700765052</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.94198064445245</v>
+        <v>21.18197694275078</v>
       </c>
       <c r="C8">
-        <v>10.99862959271999</v>
+        <v>14.02689007281986</v>
       </c>
       <c r="D8">
-        <v>4.976139494801965</v>
+        <v>4.568469335151794</v>
       </c>
       <c r="E8">
-        <v>12.35186586394249</v>
+        <v>7.44004227594008</v>
       </c>
       <c r="F8">
-        <v>24.51689968799386</v>
+        <v>17.80562657998207</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>22.2457423653412</v>
+        <v>13.01020269881484</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.03870805523297</v>
+        <v>6.245886744921907</v>
       </c>
       <c r="M8">
-        <v>14.49200872306552</v>
+        <v>12.17005493726798</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.9782889380086</v>
+        <v>14.16722647650184</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.35795579589243</v>
+        <v>24.47207573572608</v>
       </c>
       <c r="C9">
-        <v>11.66610024122545</v>
+        <v>15.55981610832045</v>
       </c>
       <c r="D9">
-        <v>5.08548238843701</v>
+        <v>4.898033978336358</v>
       </c>
       <c r="E9">
-        <v>12.24102123337161</v>
+        <v>7.134229099894922</v>
       </c>
       <c r="F9">
-        <v>24.42809738405555</v>
+        <v>18.86169356109636</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>21.91285814054433</v>
+        <v>12.31364318920593</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.02397404126998</v>
+        <v>6.462442328155</v>
       </c>
       <c r="M9">
-        <v>14.83140026703192</v>
+        <v>13.88489810919803</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.77323334470488</v>
+        <v>14.38187117034195</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.32542332544563</v>
+        <v>26.64369875930347</v>
       </c>
       <c r="C10">
-        <v>12.1285160297046</v>
+        <v>16.59969875764688</v>
       </c>
       <c r="D10">
-        <v>5.163344934550947</v>
+        <v>5.126742650606833</v>
       </c>
       <c r="E10">
-        <v>12.16696468596374</v>
+        <v>6.920514509835145</v>
       </c>
       <c r="F10">
-        <v>24.40380503533923</v>
+        <v>19.72919793666106</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>21.6946417625676</v>
+        <v>11.8867375419323</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.02003269903116</v>
+        <v>6.633157126779693</v>
       </c>
       <c r="M10">
-        <v>15.08298202964178</v>
+        <v>15.05759513278631</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.65347172931432</v>
+        <v>14.64507507619463</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.74819780227866</v>
+        <v>27.57934385330046</v>
       </c>
       <c r="C11">
-        <v>12.3321343486555</v>
+        <v>17.05329708317016</v>
       </c>
       <c r="D11">
-        <v>5.19816100724583</v>
+        <v>5.227616782605036</v>
       </c>
       <c r="E11">
-        <v>12.13486120757244</v>
+        <v>6.825489083413965</v>
       </c>
       <c r="F11">
-        <v>24.40170436372922</v>
+        <v>20.14309974131738</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>21.60109831678497</v>
+        <v>11.71458500766428</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.01972676734761</v>
+        <v>6.713236920437426</v>
       </c>
       <c r="M11">
-        <v>15.19755475806762</v>
+        <v>15.56438730221756</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.60576921201117</v>
+        <v>14.78970094552147</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.9056946738426</v>
+        <v>27.92622601292439</v>
       </c>
       <c r="C12">
-        <v>12.40822085606678</v>
+        <v>17.22222613784726</v>
       </c>
       <c r="D12">
-        <v>5.21125240203619</v>
+        <v>5.265342214254607</v>
       </c>
       <c r="E12">
-        <v>12.12293120608051</v>
+        <v>6.789805299484351</v>
       </c>
       <c r="F12">
-        <v>24.40219862726455</v>
+        <v>20.30254484350226</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>21.56649994658978</v>
+        <v>11.65291786846375</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.01982394753606</v>
+        <v>6.743900347108078</v>
       </c>
       <c r="M12">
-        <v>15.24092842233462</v>
+        <v>15.75249481492503</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.58868577796234</v>
+        <v>14.84818837810353</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.87189201278599</v>
+        <v>27.85184761978806</v>
       </c>
       <c r="C13">
-        <v>12.39188035618807</v>
+        <v>17.18597102344884</v>
       </c>
       <c r="D13">
-        <v>5.208437150275275</v>
+        <v>5.257238680705971</v>
       </c>
       <c r="E13">
-        <v>12.12549047124365</v>
+        <v>6.797477337776528</v>
       </c>
       <c r="F13">
-        <v>24.40203478763314</v>
+        <v>20.26808593202777</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>21.57391463169302</v>
+        <v>11.66603623223323</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.01979355709583</v>
+        <v>6.737281493804457</v>
       </c>
       <c r="M13">
-        <v>15.23158817200971</v>
+        <v>15.71215109866188</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.59232130345592</v>
+        <v>14.83542448965264</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.76120780072257</v>
+        <v>27.60803038911826</v>
       </c>
       <c r="C14">
-        <v>12.33841473345322</v>
+        <v>17.06725206379555</v>
       </c>
       <c r="D14">
-        <v>5.199239934953979</v>
+        <v>5.230730058020691</v>
       </c>
       <c r="E14">
-        <v>12.13387517803357</v>
+        <v>6.822547429362902</v>
       </c>
       <c r="F14">
-        <v>24.40171916775633</v>
+        <v>20.15616342668243</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>21.5982353555553</v>
+        <v>11.70943883531674</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.01973049785767</v>
+        <v>6.715752876240963</v>
       </c>
       <c r="M14">
-        <v>15.20112356201831</v>
+        <v>15.57993904930863</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.60434406471011</v>
+        <v>14.79443741593035</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.69306920776168</v>
+        <v>27.45772076807588</v>
       </c>
       <c r="C15">
-        <v>12.3055313274298</v>
+        <v>16.99416256633622</v>
       </c>
       <c r="D15">
-        <v>5.193594131999346</v>
+        <v>5.21443062047227</v>
       </c>
       <c r="E15">
-        <v>12.13904056929299</v>
+        <v>6.837942222621622</v>
       </c>
       <c r="F15">
-        <v>24.40169386266017</v>
+        <v>20.08795873094065</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>21.61323991821904</v>
+        <v>11.73649419309853</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.01971958989026</v>
+        <v>6.70260985582415</v>
       </c>
       <c r="M15">
-        <v>15.18246056745505</v>
+        <v>15.49846104255302</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.61183620975237</v>
+        <v>14.76982014066564</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.29743581572846</v>
+        <v>26.58150820791629</v>
       </c>
       <c r="C16">
-        <v>12.1150690998224</v>
+        <v>16.5696597630746</v>
       </c>
       <c r="D16">
-        <v>5.161056966076902</v>
+        <v>5.120084961007064</v>
       </c>
       <c r="E16">
-        <v>12.1690945313029</v>
+        <v>6.926767515437204</v>
       </c>
       <c r="F16">
-        <v>24.40412268095933</v>
+        <v>19.7025309381462</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>21.70087034708149</v>
+        <v>11.89846100762784</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.02008254825916</v>
+        <v>6.627971640539259</v>
       </c>
       <c r="M16">
-        <v>15.07549434672857</v>
+        <v>15.02394093460301</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.65672609030307</v>
+        <v>14.63613675120307</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.05020785426936</v>
+        <v>26.03066043170164</v>
       </c>
       <c r="C17">
-        <v>11.99646373021633</v>
+        <v>16.30422525756779</v>
       </c>
       <c r="D17">
-        <v>5.140937574740343</v>
+        <v>5.061382170409296</v>
       </c>
       <c r="E17">
-        <v>12.1879369162707</v>
+        <v>6.981810388886823</v>
       </c>
       <c r="F17">
-        <v>24.40790736741342</v>
+        <v>19.4709747515756</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>21.75609582839699</v>
+        <v>12.00370769673944</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.0206855263481</v>
+        <v>6.582796851990021</v>
       </c>
       <c r="M17">
-        <v>15.00988453547246</v>
+        <v>14.72602740546747</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.68600473278995</v>
+        <v>14.56060716026609</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.90638286997168</v>
+        <v>25.70890520573473</v>
       </c>
       <c r="C18">
-        <v>11.92761366493049</v>
+        <v>16.14972524559307</v>
       </c>
       <c r="D18">
-        <v>5.129308924387653</v>
+        <v>5.027320720760656</v>
       </c>
       <c r="E18">
-        <v>12.1989238288203</v>
+        <v>7.013677104244051</v>
       </c>
       <c r="F18">
-        <v>24.4109265579711</v>
+        <v>19.33960726718023</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>21.7883987716746</v>
+        <v>12.06629459471574</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.0211723603682</v>
+        <v>6.557041890065494</v>
       </c>
       <c r="M18">
-        <v>14.97216127987241</v>
+        <v>14.55216249245635</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.70348264058395</v>
+        <v>14.51950009578675</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.85741043344877</v>
+        <v>25.59911649655645</v>
       </c>
       <c r="C19">
-        <v>11.90419539091037</v>
+        <v>16.09710155216527</v>
       </c>
       <c r="D19">
-        <v>5.125362137911567</v>
+        <v>5.015737658513212</v>
       </c>
       <c r="E19">
-        <v>12.20266947862082</v>
+        <v>7.024502718589395</v>
       </c>
       <c r="F19">
-        <v>24.41209337161294</v>
+        <v>19.29544255179702</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>21.7994284774094</v>
+        <v>12.08782776232615</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.02136126506282</v>
+        <v>6.548361215033421</v>
       </c>
       <c r="M19">
-        <v>14.95939214259246</v>
+        <v>14.49286234097828</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.70950968738914</v>
+        <v>14.5059785412819</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.07669479760094</v>
+        <v>26.08980793685906</v>
       </c>
       <c r="C20">
-        <v>12.00915520226178</v>
+        <v>16.33267086684694</v>
       </c>
       <c r="D20">
-        <v>5.143085209449022</v>
+        <v>5.067662077029638</v>
       </c>
       <c r="E20">
-        <v>12.18591567095636</v>
+        <v>6.975929612515492</v>
       </c>
       <c r="F20">
-        <v>24.40741727811221</v>
+        <v>19.49543664957752</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>21.75016121801041</v>
+        <v>11.99228923125246</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.0206068526003</v>
+        <v>6.587582216886625</v>
       </c>
       <c r="M20">
-        <v>15.01686761057638</v>
+        <v>14.75800067422782</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.68282193821545</v>
+        <v>14.56840462334967</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.79378973575104</v>
+        <v>27.67984626856747</v>
       </c>
       <c r="C21">
-        <v>12.35414692718697</v>
+        <v>17.10220001101037</v>
       </c>
       <c r="D21">
-        <v>5.201943941711005</v>
+        <v>5.238529261496064</v>
       </c>
       <c r="E21">
-        <v>12.13140623712744</v>
+        <v>6.815175712018739</v>
       </c>
       <c r="F21">
-        <v>24.40177685447376</v>
+        <v>20.18896472205923</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>21.59106938119373</v>
+        <v>11.69659180109509</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.01974324509759</v>
+        <v>6.722067224052402</v>
       </c>
       <c r="M21">
-        <v>15.21007234049048</v>
+        <v>15.61887588186126</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.60078603295706</v>
+        <v>14.80637428057927</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.24726689532432</v>
+        <v>28.67578438053908</v>
       </c>
       <c r="C22">
-        <v>12.57365729951368</v>
+        <v>17.58857501361047</v>
       </c>
       <c r="D22">
-        <v>5.239868604478138</v>
+        <v>5.347434995756895</v>
       </c>
       <c r="E22">
-        <v>12.09710316684506</v>
+        <v>6.711856326733659</v>
       </c>
       <c r="F22">
-        <v>24.4056084467138</v>
+        <v>20.65799267510088</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>21.49190022235803</v>
+        <v>11.52406642552166</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.02042009936713</v>
+        <v>6.811932864942921</v>
       </c>
       <c r="M22">
-        <v>15.33625568715741</v>
+        <v>16.15935547407708</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.55288833282443</v>
+        <v>14.98364386382637</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.00665839134712</v>
+        <v>28.14816104196172</v>
       </c>
       <c r="C23">
-        <v>12.45706149036303</v>
+        <v>17.33051288144332</v>
       </c>
       <c r="D23">
-        <v>5.219679071771999</v>
+        <v>5.289568283188034</v>
       </c>
       <c r="E23">
-        <v>12.11529074733454</v>
+        <v>6.76684564676643</v>
       </c>
       <c r="F23">
-        <v>24.40287500108372</v>
+        <v>20.40624032198722</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>21.54438838692641</v>
+        <v>11.61412228951018</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.0199455586241</v>
+        <v>6.763792297135843</v>
       </c>
       <c r="M23">
-        <v>15.26892730825579</v>
+        <v>15.87290629458676</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.57792720897541</v>
+        <v>14.88699942122508</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.06472530731568</v>
+        <v>26.0630831340925</v>
       </c>
       <c r="C24">
-        <v>12.00341944669213</v>
+        <v>16.3198165159612</v>
       </c>
       <c r="D24">
-        <v>5.142114455665278</v>
+        <v>5.064823903004996</v>
       </c>
       <c r="E24">
-        <v>12.18682899564037</v>
+        <v>6.978587619403742</v>
       </c>
       <c r="F24">
-        <v>24.40763622079619</v>
+        <v>19.4843719473056</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>21.75284253262516</v>
+        <v>11.9974450695059</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.02064198431517</v>
+        <v>6.585418077970595</v>
       </c>
       <c r="M24">
-        <v>15.01371057024496</v>
+        <v>14.74355363047052</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.6842588702224</v>
+        <v>14.56487218763635</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.98710838541653</v>
+        <v>23.62549022355834</v>
       </c>
       <c r="C25">
-        <v>11.49019986289804</v>
+        <v>15.15998444813604</v>
       </c>
       <c r="D25">
-        <v>5.056312504876446</v>
+        <v>4.811137937723267</v>
       </c>
       <c r="E25">
-        <v>12.26970607836592</v>
+        <v>7.214974740614327</v>
       </c>
       <c r="F25">
-        <v>24.4449528860015</v>
+        <v>18.55971318161586</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>21.99828599568478</v>
+        <v>12.48828969819345</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.0267487205731</v>
+        <v>6.40178365480936</v>
       </c>
       <c r="M25">
-        <v>14.73907054651484</v>
+        <v>13.42921010286998</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.82330608012984</v>
+        <v>14.30599145885207</v>
       </c>
     </row>
   </sheetData>
